--- a/Datasets/2nd Analysis Datasets/Results/MeaningCloud/without None/Negation_Dataset_MeaningCloud.xlsx
+++ b/Datasets/2nd Analysis Datasets/Results/MeaningCloud/without None/Negation_Dataset_MeaningCloud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\2nd Analysis Datasets\Results\MeaningCloud\without None\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92231768-D14C-41E7-A3EA-9F1FFB3386FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E87324-4387-4A00-82E6-A78F4BAFF6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{8BBC0C09-1525-4323-89AF-1CD23E2C34AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8BBC0C09-1525-4323-89AF-1CD23E2C34AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="244">
   <si>
     <t>highly unprofessional and rude to a loyal patron</t>
   </si>
@@ -854,9 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -874,6 +871,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7F7C56-2EE8-4E8C-B518-6CF68412FB93}">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,8 +1776,8 @@
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" t="s">
-        <v>192</v>
+      <c r="C53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,8 +1787,8 @@
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
-        <v>192</v>
+      <c r="C54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,8 +1908,8 @@
       <c r="B65" t="s">
         <v>60</v>
       </c>
-      <c r="C65" t="s">
-        <v>192</v>
+      <c r="C65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2546,8 +2546,8 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="C123" t="s">
-        <v>192</v>
+      <c r="C123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       <c r="A26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3060,7 +3060,7 @@
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       <c r="A64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       <c r="A65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       <c r="A95" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       <c r="A96" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="A103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       <c r="A104" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="A105" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       <c r="A107" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="A108" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       <c r="A109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       <c r="A110" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       <c r="A111" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       <c r="A112" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
       <c r="A113" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       <c r="A114" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       <c r="A115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       <c r="A116" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3975,27 +3975,27 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4019,33 +4019,33 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4053,19 +4053,19 @@
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4073,13 +4073,13 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4087,13 +4087,13 @@
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4101,19 +4101,19 @@
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4137,33 +4137,33 @@
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4171,31 +4171,31 @@
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4219,33 +4219,33 @@
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4253,13 +4253,13 @@
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4267,31 +4267,31 @@
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4299,21 +4299,21 @@
       <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4321,37 +4321,37 @@
       <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4359,33 +4359,33 @@
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       <c r="A66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4425,21 +4425,21 @@
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4447,13 +4447,13 @@
       <c r="A71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       <c r="A73" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4469,53 +4469,53 @@
       <c r="A74" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="5"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="9"/>
+      <c r="B78" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="9"/>
+      <c r="B79" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="9"/>
+      <c r="B81" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       <c r="A82" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="A83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4539,19 +4539,19 @@
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="5"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="5"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       <c r="A87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       <c r="A88" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4575,21 +4575,21 @@
       <c r="A89" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="9"/>
+      <c r="B91" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       <c r="A92" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       <c r="A93" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       <c r="A94" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4621,25 +4621,25 @@
       <c r="A95" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="9"/>
+      <c r="B98" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="A99" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4655,33 +4655,33 @@
       <c r="A100" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="5"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="9"/>
+      <c r="B103" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="9"/>
+      <c r="B104" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4689,39 +4689,39 @@
       <c r="A105" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="5"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5" t="s">
+      <c r="A110" s="9"/>
+      <c r="B110" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       <c r="A111" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       <c r="A112" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       <c r="A113" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       <c r="A114" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4769,37 +4769,37 @@
       <c r="A116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B117" s="5"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="9"/>
+      <c r="B119" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="5" t="s">
+      <c r="A120" s="9"/>
+      <c r="B120" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="5" t="s">
+      <c r="A121" s="9"/>
+      <c r="B121" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4807,25 +4807,25 @@
       <c r="A122" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B122" s="5"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B123" s="5"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4833,19 +4833,19 @@
       <c r="A126" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="5"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       <c r="A129" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4861,41 +4861,41 @@
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="5" t="s">
+      <c r="A132" s="9"/>
+      <c r="B132" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="5" t="s">
+      <c r="A133" s="9"/>
+      <c r="B133" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="5" t="s">
+      <c r="A135" s="9"/>
+      <c r="B135" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       <c r="A136" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4911,33 +4911,33 @@
       <c r="A137" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B137" s="5"/>
+      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="5" t="s">
+      <c r="A139" s="9"/>
+      <c r="B139" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="5" t="s">
+      <c r="A141" s="9"/>
+      <c r="B141" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4945,31 +4945,31 @@
       <c r="A142" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="5" t="s">
+      <c r="A144" s="9"/>
+      <c r="B144" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="5" t="s">
+      <c r="A145" s="9"/>
+      <c r="B145" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="5" t="s">
+      <c r="A146" s="9"/>
+      <c r="B146" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4977,45 +4977,45 @@
       <c r="A147" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B147" s="5"/>
+      <c r="B147" s="4"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B148" s="5"/>
+      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149" s="4"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="9"/>
+      <c r="B152" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="9"/>
+      <c r="B153" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5023,75 +5023,75 @@
       <c r="A154" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="9"/>
+      <c r="B156" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="9"/>
+      <c r="B158" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="5" t="s">
+      <c r="A160" s="9"/>
+      <c r="B160" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="5" t="s">
+      <c r="A161" s="9"/>
+      <c r="B161" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="5" t="s">
+      <c r="A162" s="9"/>
+      <c r="B162" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="5" t="s">
+      <c r="A164" s="9"/>
+      <c r="B164" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5099,25 +5099,25 @@
       <c r="A165" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B165" s="5"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B166" s="5"/>
+      <c r="B166" s="4"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B167" s="5"/>
+      <c r="B167" s="4"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5125,13 +5125,13 @@
       <c r="A169" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B169" s="5"/>
+      <c r="B169" s="4"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5139,25 +5139,25 @@
       <c r="A171" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B171" s="5"/>
+      <c r="B171" s="4"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="5" t="s">
+      <c r="A173" s="9"/>
+      <c r="B173" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="5" t="s">
+      <c r="A174" s="9"/>
+      <c r="B174" s="4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5165,13 +5165,13 @@
       <c r="A175" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B175" s="5"/>
+      <c r="B175" s="4"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       <c r="A177" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       <c r="A178" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5195,19 +5195,19 @@
       <c r="A179" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B179" s="5"/>
+      <c r="B179" s="4"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="5" t="s">
+      <c r="A181" s="9"/>
+      <c r="B181" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5215,69 +5215,69 @@
       <c r="A182" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="5" t="s">
+      <c r="A184" s="9"/>
+      <c r="B184" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="5" t="s">
+      <c r="A186" s="9"/>
+      <c r="B186" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="5" t="s">
+      <c r="A188" s="9"/>
+      <c r="B188" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="5" t="s">
+      <c r="A190" s="9"/>
+      <c r="B190" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="5" t="s">
+      <c r="A191" s="9"/>
+      <c r="B191" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="A192" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5293,47 +5293,47 @@
       <c r="A193" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B193" s="5"/>
+      <c r="B193" s="4"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="5" t="s">
+      <c r="A196" s="9"/>
+      <c r="B196" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="5" t="s">
+      <c r="A197" s="9"/>
+      <c r="B197" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="5" t="s">
+      <c r="A199" s="9"/>
+      <c r="B199" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5341,13 +5341,13 @@
       <c r="A200" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B200" s="5"/>
+      <c r="B200" s="4"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       <c r="A202" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5363,12 +5363,42 @@
       <c r="A203" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="4" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A143:A146"/>
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="A189:A191"/>
     <mergeCell ref="A195:A197"/>
@@ -5378,36 +5408,6 @@
     <mergeCell ref="A180:A181"/>
     <mergeCell ref="A183:A184"/>
     <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
